--- a/1erParte/b.Diodo Zener/Mediciones_1N4736A.xlsx
+++ b/1erParte/b.Diodo Zener/Mediciones_1N4736A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9663E-54AE-4C7B-A195-23B1AF9A3CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6262A4A6-AABC-4746-A136-2FD5917B8DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Vi</t>
   </si>
@@ -125,13 +125,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,7 +432,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="7"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -461,10 +461,12 @@
       <c r="B3" s="4">
         <v>-10</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>-6.78</v>
+      </c>
       <c r="D3" s="4">
         <f>(B3-C3)/1200</f>
-        <v>-8.3333333333333332E-3</v>
+        <v>-2.6833333333333331E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -473,18 +475,20 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
-        <v>-9</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>-9.01</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-6.77</v>
+      </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D33" si="0">(B4-C4)/1200</f>
-        <v>-7.4999999999999997E-3</v>
+        <f t="shared" ref="D4:D36" si="0">(B4-C4)/1200</f>
+        <v>-1.8666666666666669E-3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -493,18 +497,20 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
-        <v>-8</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>-8.01</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-6.76</v>
+      </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>-6.6666666666666671E-3</v>
+        <v>-1.0416666666666667E-3</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -513,18 +519,20 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
-        <v>-7</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>-7.03</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-6.74</v>
+      </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>-5.8333333333333336E-3</v>
+        <v>-2.416666666666667E-4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -533,18 +541,20 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
-        <v>-6.9</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>-6.93</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-6.74</v>
+      </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>-5.7499999999999999E-3</v>
+        <v>-1.5833333333333292E-4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -553,7 +563,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -561,10 +571,12 @@
       <c r="B8" s="4">
         <v>-6.8</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>-6.73</v>
+      </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>-5.6666666666666662E-3</v>
+        <v>-5.8333333333332831E-5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -573,7 +585,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -581,10 +593,12 @@
       <c r="B9" s="4">
         <v>-6.7</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>-6.69</v>
+      </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>-5.5833333333333334E-3</v>
+        <v>-8.3333333333331559E-6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -593,7 +607,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -601,10 +615,12 @@
       <c r="B10" s="4">
         <v>-6.6</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>-6.59</v>
+      </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>-5.4999999999999997E-3</v>
+        <v>-8.3333333333331559E-6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -613,7 +629,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -621,10 +637,12 @@
       <c r="B11" s="4">
         <v>-6.5</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>-6.5</v>
+      </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>-5.4166666666666669E-3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -633,7 +651,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -641,10 +659,12 @@
       <c r="B12" s="4">
         <v>-6</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>-6</v>
+      </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -653,18 +673,20 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4">
-        <v>-5</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-5.0199999999999996</v>
+      </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -673,18 +695,20 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4">
-        <v>-4</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-4.0199999999999996</v>
+      </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>-3.3333333333333335E-3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -693,18 +717,20 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>-3.03</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-3.03</v>
+      </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>-2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -713,18 +739,20 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="4">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-2.0099999999999998</v>
+      </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>-1.6666666666666668E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -733,18 +761,20 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>-1.02</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-1.02</v>
+      </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>-8.3333333333333339E-4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -753,7 +783,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -761,7 +791,9 @@
       <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -773,18 +805,20 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>0.106</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.106</v>
+      </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333344E-5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -793,18 +827,20 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.20499999999999999</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>1.6666666666666669E-4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -813,18 +849,20 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.30499999999999999</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -833,18 +871,20 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.40100000000000002</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>3.3333333333333338E-4</v>
+        <v>2.5000000000000023E-6</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -853,18 +893,20 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.48699999999999999</v>
+      </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>4.1666666666666669E-4</v>
+        <v>1.416666666666668E-5</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -873,18 +915,20 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.52200000000000002</v>
+      </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>4.5833333333333338E-4</v>
+        <v>2.666666666666669E-5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -893,18 +937,20 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.55200000000000005</v>
+      </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <v>4.2499999999999942E-5</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -913,18 +959,20 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.57699999999999996</v>
+      </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>5.4166666666666664E-4</v>
+        <v>6.4166666666666718E-5</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -933,18 +981,20 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>5.8333333333333327E-4</v>
+        <v>8.8333333333333317E-5</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -953,18 +1003,20 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>0.753</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.61499999999999999</v>
+      </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>6.2500000000000001E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -973,72 +1025,111 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.63</v>
+      </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>6.6666666666666675E-4</v>
-      </c>
-      <c r="L29" s="7"/>
+        <v>1.4416666666666671E-4</v>
+      </c>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.65200000000000002</v>
+      </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="L30" s="7"/>
+        <v>2.0916666666666666E-4</v>
+      </c>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>1.002</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.66800000000000004</v>
+      </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339E-4</v>
-      </c>
-      <c r="L31" s="7"/>
+        <v>2.7833333333333329E-4</v>
+      </c>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.70899999999999996</v>
+      </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>1.25E-3</v>
-      </c>
-      <c r="L32" s="8"/>
+        <v>6.5833333333333347E-4</v>
+      </c>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>1.99</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.72699999999999998</v>
+      </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>1.6666666666666668E-3</v>
-      </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="8"/>
+        <v>1.0524999999999998E-3</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.747</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8775E-3</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6916666666666669E-3</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5100000000000005E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1erParte/b.Diodo Zener/Mediciones_1N4736A.xlsx
+++ b/1erParte/b.Diodo Zener/Mediciones_1N4736A.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6262A4A6-AABC-4746-A136-2FD5917B8DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6518E-78B1-4D04-B241-BEBC15D6F1AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Vi</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,14 +1121,14 @@
     </row>
     <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
-        <v>4.9800000000000004</v>
+        <v>5</v>
       </c>
       <c r="C36" s="8">
         <v>0.76800000000000002</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="0"/>
-        <v>3.5100000000000005E-3</v>
+        <v>3.5266666666666667E-3</v>
       </c>
     </row>
   </sheetData>
